--- a/data/trans_orig/P6714-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6714-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>5675</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1929</v>
+        <v>1903</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10921</v>
+        <v>11255</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02110325801388625</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007172385134013525</v>
+        <v>0.007076921717880096</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04060637694467027</v>
+        <v>0.04184975438855115</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7499</v>
+        <v>6835</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01345004404971717</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04649871002888234</v>
+        <v>0.0423828281450559</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -784,19 +784,19 @@
         <v>7845</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3568</v>
+        <v>3706</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15370</v>
+        <v>15167</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01823427034053967</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008294449219340281</v>
+        <v>0.008613601793799568</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03572583252666461</v>
+        <v>0.03525425471165022</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>5079</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1054</v>
+        <v>1062</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14295</v>
+        <v>14259</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01888590968440794</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.00391834144171701</v>
+        <v>0.00394765818830678</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05315299014189324</v>
+        <v>0.05302077673259439</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -834,19 +834,19 @@
         <v>6036</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2097</v>
+        <v>2031</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13315</v>
+        <v>13823</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03742861578535753</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01300423416691228</v>
+        <v>0.01259287756300762</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08256351179438466</v>
+        <v>0.08570922364067457</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -855,19 +855,19 @@
         <v>11115</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5598</v>
+        <v>5315</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>20390</v>
+        <v>20524</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02583708019697685</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01301118776067129</v>
+        <v>0.01235548620884039</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04739555526545651</v>
+        <v>0.04770652570994311</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>27830</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18639</v>
+        <v>18922</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>40120</v>
+        <v>39286</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1034806699981725</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06930526268530961</v>
+        <v>0.07035800102833194</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1491780626346585</v>
+        <v>0.1460796576442944</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>21</v>
@@ -905,19 +905,19 @@
         <v>20942</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14122</v>
+        <v>13179</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>30167</v>
+        <v>31212</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1298531727324242</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08756284214416553</v>
+        <v>0.08171527985909573</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1870555788387942</v>
+        <v>0.1935352836282122</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>48</v>
@@ -926,19 +926,19 @@
         <v>48772</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>35872</v>
+        <v>37792</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>63687</v>
+        <v>64908</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1133670243604187</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0833825536018539</v>
+        <v>0.08784499028326577</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1480362331516177</v>
+        <v>0.1508745693520855</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>69164</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>56179</v>
+        <v>56682</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>85117</v>
+        <v>85497</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2571759706050412</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2088915296020307</v>
+        <v>0.2107624060600433</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3164930348293105</v>
+        <v>0.317907174202941</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -976,19 +976,19 @@
         <v>47273</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35974</v>
+        <v>36177</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>58590</v>
+        <v>58515</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2931220172391469</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2230581449389211</v>
+        <v>0.2243164667066062</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3632909323950062</v>
+        <v>0.3628263139700226</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>113</v>
@@ -997,19 +997,19 @@
         <v>116437</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>98359</v>
+        <v>99013</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>136391</v>
+        <v>137131</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2706511935873883</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2286291954790281</v>
+        <v>0.2301493709909891</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3170319762621402</v>
+        <v>0.3187520599723734</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>161189</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>143860</v>
+        <v>145171</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>177672</v>
+        <v>178514</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5993541916984921</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.534920115082844</v>
+        <v>0.5397959836809673</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.660646292387988</v>
+        <v>0.6637754402610956</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>77</v>
@@ -1047,19 +1047,19 @@
         <v>84854</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>72802</v>
+        <v>71868</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>98713</v>
+        <v>97913</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5261461501933542</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4514168607435772</v>
+        <v>0.445626487444186</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6120799402905448</v>
+        <v>0.6071185649088562</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>232</v>
@@ -1068,19 +1068,19 @@
         <v>246043</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>223969</v>
+        <v>223498</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>266866</v>
+        <v>265039</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5719104315146765</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5206015777125029</v>
+        <v>0.5195064448448148</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6203134521620498</v>
+        <v>0.6160658915313019</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>6073</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2874</v>
+        <v>2081</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12476</v>
+        <v>12685</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01478756730193677</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006996777900535133</v>
+        <v>0.005066578910559809</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03037844441436224</v>
+        <v>0.03088768116037586</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1193,19 +1193,19 @@
         <v>3374</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9158</v>
+        <v>9004</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01247106739886566</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003816946950328674</v>
+        <v>0.003796896194144877</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0338508464001744</v>
+        <v>0.03328248452728334</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1214,19 +1214,19 @@
         <v>9447</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4548</v>
+        <v>4203</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17011</v>
+        <v>17267</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01386759222869833</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006676653452327551</v>
+        <v>0.00616967884088932</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02497053455550917</v>
+        <v>0.02534697322368625</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>10947</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5343</v>
+        <v>5989</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19677</v>
+        <v>19994</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02665443930848436</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01301020850111363</v>
+        <v>0.0145830455868176</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04791312444375757</v>
+        <v>0.04868483402125694</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -1264,19 +1264,19 @@
         <v>9846</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4359</v>
+        <v>4379</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>18786</v>
+        <v>18377</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03639180700552223</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01611043606795871</v>
+        <v>0.01618661967600516</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06943879582765024</v>
+        <v>0.0679264540720832</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>18</v>
@@ -1285,19 +1285,19 @@
         <v>20792</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>12919</v>
+        <v>12110</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>32222</v>
+        <v>30814</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03052153878401455</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01896467577296147</v>
+        <v>0.01777603740192965</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04729930181084323</v>
+        <v>0.04523207637886918</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>58665</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>45274</v>
+        <v>44931</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>75524</v>
+        <v>74330</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1428457430706583</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1102397826451907</v>
+        <v>0.1094036796248492</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1838960656474911</v>
+        <v>0.1809886767521257</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>49</v>
@@ -1335,19 +1335,19 @@
         <v>52404</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>39868</v>
+        <v>39981</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>67120</v>
+        <v>65835</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1936969490169883</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1473614699344063</v>
+        <v>0.1477789229753111</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2480914079811358</v>
+        <v>0.2433412829998014</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>104</v>
@@ -1356,19 +1356,19 @@
         <v>111070</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>93468</v>
+        <v>90949</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>131622</v>
+        <v>130642</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1630407976237436</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1372035213631892</v>
+        <v>0.133505170515671</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1932097032574656</v>
+        <v>0.1917710769884034</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>88330</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>72525</v>
+        <v>72432</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>105847</v>
+        <v>108156</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.215077713297305</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.176591978780961</v>
+        <v>0.1763664207112691</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2577302371982352</v>
+        <v>0.2633512266127679</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>59</v>
@@ -1406,19 +1406,19 @@
         <v>64482</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50195</v>
+        <v>51253</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>79234</v>
+        <v>81025</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2383389828516778</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1855323315257035</v>
+        <v>0.1894437176437597</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2928641858500711</v>
+        <v>0.2994848634481557</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>140</v>
@@ -1427,19 +1427,19 @@
         <v>152812</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>131590</v>
+        <v>131673</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>175522</v>
+        <v>175295</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.224315696917996</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.193163741008849</v>
+        <v>0.1932847251048699</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2576511211548367</v>
+        <v>0.2573175915480921</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>246675</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>224408</v>
+        <v>224956</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>266784</v>
+        <v>266605</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6006345370216156</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5464149331814334</v>
+        <v>0.5477510337827073</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6495968095281619</v>
+        <v>0.6491619978962899</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>126</v>
@@ -1477,19 +1477,19 @@
         <v>140441</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>122938</v>
+        <v>122710</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>156355</v>
+        <v>157210</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5191011937269461</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4544060542560263</v>
+        <v>0.453562493297457</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5779206107812662</v>
+        <v>0.5810808569607664</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>352</v>
@@ -1498,19 +1498,19 @@
         <v>387116</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>361350</v>
+        <v>360437</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>411653</v>
+        <v>415420</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5682543744455475</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.530431379351868</v>
+        <v>0.5290905179321572</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.604272109857647</v>
+        <v>0.6098008689946037</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>4117</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1186</v>
+        <v>1002</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9287</v>
+        <v>10484</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01293033446556362</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003724633082454608</v>
+        <v>0.003145751864551404</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02916734684661806</v>
+        <v>0.03292720734366905</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1623,19 +1623,19 @@
         <v>4614</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1167</v>
+        <v>1179</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10307</v>
+        <v>12045</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02161729083944319</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00546692935257656</v>
+        <v>0.005524083222751407</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04828678667533892</v>
+        <v>0.0564301416216505</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1644,19 +1644,19 @@
         <v>8731</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4004</v>
+        <v>4025</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17202</v>
+        <v>16869</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01641677893783036</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007527677184843393</v>
+        <v>0.007568183867191561</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03234285304951664</v>
+        <v>0.03171701616106858</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>16940</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9558</v>
+        <v>9142</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>29450</v>
+        <v>28472</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05320268853727809</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03001829478766646</v>
+        <v>0.02871277634801129</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09249371027730396</v>
+        <v>0.08942184864206629</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -1694,19 +1694,19 @@
         <v>16478</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9633</v>
+        <v>9586</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>28614</v>
+        <v>27531</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07719474420266559</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04512968337072969</v>
+        <v>0.04490929722030255</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1340528848444002</v>
+        <v>0.1289780122985406</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>26</v>
@@ -1715,19 +1715,19 @@
         <v>33417</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>22588</v>
+        <v>22309</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>49463</v>
+        <v>48677</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06283171926482042</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0424703535286151</v>
+        <v>0.04194647793311398</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09300246293066061</v>
+        <v>0.09152485786356823</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>40870</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>28907</v>
+        <v>29266</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>54956</v>
+        <v>53205</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1283614091475448</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09079063325110313</v>
+        <v>0.09191748284373931</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1726037598926995</v>
+        <v>0.1671035467752965</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>27</v>
@@ -1765,19 +1765,19 @@
         <v>31461</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>20212</v>
+        <v>21593</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>44027</v>
+        <v>45288</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1473920605015062</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09469138177094616</v>
+        <v>0.1011619142607823</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2062599718732219</v>
+        <v>0.2121693009694094</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>65</v>
@@ -1786,19 +1786,19 @@
         <v>72331</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>56712</v>
+        <v>57716</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>90782</v>
+        <v>89492</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1359992176458305</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1066309501120257</v>
+        <v>0.1085190026986392</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1706912155306157</v>
+        <v>0.1682657849302819</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>52743</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>39930</v>
+        <v>39388</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>67693</v>
+        <v>66955</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1656516252480749</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1254103913717869</v>
+        <v>0.1237078993918693</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2126060241258778</v>
+        <v>0.2102880980751645</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>46</v>
@@ -1836,19 +1836,19 @@
         <v>51494</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>39625</v>
+        <v>38825</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>65803</v>
+        <v>66057</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2412422404975983</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1856367009052613</v>
+        <v>0.1818886132110678</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3082761374202299</v>
+        <v>0.3094689023774533</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>95</v>
@@ -1857,19 +1857,19 @@
         <v>104237</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>85890</v>
+        <v>85931</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>123982</v>
+        <v>125316</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1959893489972556</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1614937514803509</v>
+        <v>0.1615703909619468</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.233114739440855</v>
+        <v>0.2356236466385249</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>203727</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>183871</v>
+        <v>185872</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>220503</v>
+        <v>221898</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6398539426015386</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5774910737140434</v>
+        <v>0.5837750341066026</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6925446137319486</v>
+        <v>0.6969250830783855</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>101</v>
@@ -1907,19 +1907,19 @@
         <v>109407</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>94304</v>
+        <v>94135</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>124639</v>
+        <v>124964</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5125536639587868</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4417988242335073</v>
+        <v>0.4410098082903779</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5839170380653327</v>
+        <v>0.5854367287971793</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>286</v>
@@ -1928,19 +1928,19 @@
         <v>313134</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>288514</v>
+        <v>288697</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>335273</v>
+        <v>336559</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5887629351542631</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5424718504348361</v>
+        <v>0.542816178996801</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6303895347279976</v>
+        <v>0.6328072028987123</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>6683</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2800</v>
+        <v>2817</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14355</v>
+        <v>14350</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01603923695752586</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006719276250521508</v>
+        <v>0.006761615270840303</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03445000400745481</v>
+        <v>0.03443711582523012</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -2053,19 +2053,19 @@
         <v>7581</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2910</v>
+        <v>3692</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14350</v>
+        <v>13978</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02555711591955152</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009810254508925118</v>
+        <v>0.0124464340317507</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04837899105253494</v>
+        <v>0.04712454211677669</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>14</v>
@@ -2074,19 +2074,19 @@
         <v>14264</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7734</v>
+        <v>8399</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>23988</v>
+        <v>23090</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01999709608024419</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01084183082679741</v>
+        <v>0.01177535406899938</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03362881417955951</v>
+        <v>0.03237104356102195</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>17476</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11032</v>
+        <v>10496</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>27148</v>
+        <v>27727</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04194038837501747</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02647457925046229</v>
+        <v>0.02518910757833831</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06515251262043442</v>
+        <v>0.06654251346165568</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -2124,19 +2124,19 @@
         <v>6875</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2965</v>
+        <v>2855</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>13554</v>
+        <v>13202</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02317865712898783</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.009995217595772177</v>
+        <v>0.00962450089010959</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0456939296252997</v>
+        <v>0.0445083418253694</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>24</v>
@@ -2145,19 +2145,19 @@
         <v>24351</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>16115</v>
+        <v>15936</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>35687</v>
+        <v>34631</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03413861978073769</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02259160091190723</v>
+        <v>0.02234108719924447</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05003115694135916</v>
+        <v>0.04854973669774747</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>66824</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>52555</v>
+        <v>52211</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>84550</v>
+        <v>84211</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1603702170223209</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1261253216059118</v>
+        <v>0.1252988791555756</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2029105681142901</v>
+        <v>0.2020967094806495</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>46</v>
@@ -2195,19 +2195,19 @@
         <v>49816</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>37657</v>
+        <v>37401</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>65730</v>
+        <v>63858</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1679469649120283</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1269559715424539</v>
+        <v>0.1260928258199603</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2215994802320311</v>
+        <v>0.2152893228788261</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>109</v>
@@ -2216,19 +2216,19 @@
         <v>116640</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>97975</v>
+        <v>97683</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>137388</v>
+        <v>137437</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1635208875525367</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1373530028622316</v>
+        <v>0.1369443825516427</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1926072532048891</v>
+        <v>0.1926769724410176</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>112216</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>94005</v>
+        <v>93072</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>132043</v>
+        <v>130344</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2693036313418309</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2255997990060613</v>
+        <v>0.223361502630018</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3168877848175214</v>
+        <v>0.3128106146713556</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>74</v>
@@ -2266,19 +2266,19 @@
         <v>75028</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>60018</v>
+        <v>61476</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>90451</v>
+        <v>91891</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.252944458017845</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2023421077557555</v>
+        <v>0.2072580564063814</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3049432636174261</v>
+        <v>0.3097975884154929</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>186</v>
@@ -2287,19 +2287,19 @@
         <v>187243</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>164787</v>
+        <v>162691</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>210640</v>
+        <v>210182</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2625009283826111</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.231019308698996</v>
+        <v>0.2280810630287373</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2953020716287717</v>
+        <v>0.2946589215687392</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>213489</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>190968</v>
+        <v>193049</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>235427</v>
+        <v>233512</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5123465263033048</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4582995357820907</v>
+        <v>0.4632930824679942</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5649962315727882</v>
+        <v>0.5604000875443517</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>148</v>
@@ -2337,19 +2337,19 @@
         <v>157318</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>139864</v>
+        <v>140224</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>174085</v>
+        <v>175120</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5303728040215873</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4715317565483926</v>
+        <v>0.4727445982592665</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.58690069567611</v>
+        <v>0.5903912116212711</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>352</v>
@@ -2358,19 +2358,19 @@
         <v>370806</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>344942</v>
+        <v>341539</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>398554</v>
+        <v>398679</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5198424682038703</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.483582684366388</v>
+        <v>0.478811668142578</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5587429194261719</v>
+        <v>0.5589184795947458</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>22549</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>14437</v>
+        <v>14609</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>33356</v>
+        <v>33455</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01593885789886484</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01020476070016156</v>
+        <v>0.01032673467864048</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02357773381296571</v>
+        <v>0.02364799393773465</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>17</v>
@@ -2483,19 +2483,19 @@
         <v>17738</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>10453</v>
+        <v>10646</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>28042</v>
+        <v>27531</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01883243032633461</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0110978353259833</v>
+        <v>0.01130232371761368</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02977155984223001</v>
+        <v>0.02922970876236843</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>39</v>
@@ -2504,19 +2504,19 @@
         <v>40287</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>28724</v>
+        <v>28876</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>54156</v>
+        <v>55205</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01709536673690172</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01218884265112926</v>
+        <v>0.01225314473419472</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02298039690086981</v>
+        <v>0.02342583912913921</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>50441</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>36760</v>
+        <v>37817</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>67104</v>
+        <v>67375</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03565491431665365</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02598428351266607</v>
+        <v>0.02673106617455568</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04743302653528583</v>
+        <v>0.04762437295598326</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>33</v>
@@ -2554,19 +2554,19 @@
         <v>39235</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>27202</v>
+        <v>27522</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>54892</v>
+        <v>55911</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04165516191714037</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02888011222594203</v>
+        <v>0.02922000358977165</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0582788927053504</v>
+        <v>0.05936058999987642</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>77</v>
@@ -2575,19 +2575,19 @@
         <v>89676</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>71057</v>
+        <v>72113</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>110076</v>
+        <v>111685</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03805310532597305</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03015224307843346</v>
+        <v>0.03060038854818478</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04670960428854208</v>
+        <v>0.04739218008848182</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>194189</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>166802</v>
+        <v>169034</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>221337</v>
+        <v>222695</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1372642307106214</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1179054226805557</v>
+        <v>0.1194833014056484</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1564538331515727</v>
+        <v>0.1574136019897097</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>143</v>
@@ -2625,19 +2625,19 @@
         <v>154624</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>132818</v>
+        <v>132048</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>179466</v>
+        <v>176737</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1641625298763872</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1410122969930223</v>
+        <v>0.1401941857572657</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1905377149953539</v>
+        <v>0.1876404760810586</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>326</v>
@@ -2646,19 +2646,19 @@
         <v>348813</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>312304</v>
+        <v>315229</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>383811</v>
+        <v>388122</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1480149969323504</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1325226749769643</v>
+        <v>0.1337641439283445</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1628661605829821</v>
+        <v>0.1646953959577329</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>322453</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>291087</v>
+        <v>293454</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>356602</v>
+        <v>358678</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2279284122685862</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2057567678231056</v>
+        <v>0.2074300497351417</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2520669793596686</v>
+        <v>0.2535345904554395</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>224</v>
@@ -2696,19 +2696,19 @@
         <v>238277</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>213896</v>
+        <v>210878</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>269869</v>
+        <v>266163</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2529766244366204</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2270913852493702</v>
+        <v>0.2238877284566514</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2865174409991484</v>
+        <v>0.2825825768461335</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>534</v>
@@ -2717,19 +2717,19 @@
         <v>560730</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>524074</v>
+        <v>518485</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>605829</v>
+        <v>602612</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2379397320041304</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2223852137559897</v>
+        <v>0.2200136687302759</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2570769898735503</v>
+        <v>0.2557120213911562</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>825079</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>782268</v>
+        <v>785798</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>863387</v>
+        <v>865450</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5832135848052739</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5529518634546648</v>
+        <v>0.5554474234813469</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6102916417832598</v>
+        <v>0.6117500433210259</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>452</v>
@@ -2767,19 +2767,19 @@
         <v>492020</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>461061</v>
+        <v>459204</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>528169</v>
+        <v>523102</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5223732534435175</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4895049174634137</v>
+        <v>0.4875332313694191</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5607523976309641</v>
+        <v>0.5553726402327046</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1222</v>
@@ -2788,19 +2788,19 @@
         <v>1317099</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1268468</v>
+        <v>1264447</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1363115</v>
+        <v>1365089</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5588967990006445</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5382606269652208</v>
+        <v>0.5365543272318758</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.578423383669543</v>
+        <v>0.579260865908553</v>
       </c>
     </row>
     <row r="33">
@@ -3132,19 +3132,19 @@
         <v>6629</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2494</v>
+        <v>3107</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13563</v>
+        <v>14528</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02746827306269337</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01033648464900795</v>
+        <v>0.01287355360520274</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05620498103509672</v>
+        <v>0.06020151110495862</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -3156,16 +3156,16 @@
         <v>983</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10660</v>
+        <v>9968</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02633453691699467</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005986861673321665</v>
+        <v>0.005988068498858564</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06490670806204958</v>
+        <v>0.06069164211738914</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -3174,19 +3174,19 @@
         <v>10954</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6065</v>
+        <v>5543</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19709</v>
+        <v>20577</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02700915644964878</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01495550570464472</v>
+        <v>0.01366859734227147</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04859698400997937</v>
+        <v>0.05073920979115915</v>
       </c>
     </row>
     <row r="5">
@@ -3203,19 +3203,19 @@
         <v>18265</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11234</v>
+        <v>11649</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27632</v>
+        <v>27756</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07568567464180694</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04655150456346682</v>
+        <v>0.04827071851205002</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1145048454412373</v>
+        <v>0.1150161210334252</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -3224,19 +3224,19 @@
         <v>11829</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6875</v>
+        <v>6432</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20347</v>
+        <v>19068</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07202875117719713</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04186375871384238</v>
+        <v>0.03916682456433634</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1238926660976458</v>
+        <v>0.1161048252459188</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>31</v>
@@ -3245,19 +3245,19 @@
         <v>30094</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20724</v>
+        <v>21173</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>41957</v>
+        <v>42115</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07420477071049561</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05109966860393116</v>
+        <v>0.05220749999934419</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1034565507498726</v>
+        <v>0.1038463315405351</v>
       </c>
     </row>
     <row r="6">
@@ -3274,19 +3274,19 @@
         <v>39194</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28292</v>
+        <v>29029</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>51745</v>
+        <v>51590</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1624144439085097</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1172369420395596</v>
+        <v>0.1202936611162993</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2144241938458055</v>
+        <v>0.2137806281467349</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>34</v>
@@ -3295,19 +3295,19 @@
         <v>31902</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>22751</v>
+        <v>23132</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>42891</v>
+        <v>43792</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1942488261717802</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.138530552292411</v>
+        <v>0.1408502173039148</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2611621915965289</v>
+        <v>0.2666478200911426</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>70</v>
@@ -3316,19 +3316,19 @@
         <v>71096</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>56509</v>
+        <v>57266</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>85982</v>
+        <v>87005</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1753060623141946</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1393381479186421</v>
+        <v>0.141204651566901</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2120111308791601</v>
+        <v>0.2145342477978068</v>
       </c>
     </row>
     <row r="7">
@@ -3345,19 +3345,19 @@
         <v>74243</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>60426</v>
+        <v>60042</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>89113</v>
+        <v>88542</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3076521454323377</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2503950750180963</v>
+        <v>0.2488070393823428</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.369270572422355</v>
+        <v>0.366906192838598</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>60</v>
@@ -3366,19 +3366,19 @@
         <v>56707</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>45346</v>
+        <v>45351</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>68577</v>
+        <v>68531</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3452871573676094</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2761084006952228</v>
+        <v>0.2761411997872269</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4175635838742123</v>
+        <v>0.4172791052251023</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>132</v>
@@ -3387,19 +3387,19 @@
         <v>130950</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>114446</v>
+        <v>113306</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>151231</v>
+        <v>150264</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3228927808104804</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2821980544049585</v>
+        <v>0.2793863115917287</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3729003684393459</v>
+        <v>0.3705156103895223</v>
       </c>
     </row>
     <row r="8">
@@ -3416,19 +3416,19 @@
         <v>102991</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>87791</v>
+        <v>88321</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>118063</v>
+        <v>118428</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4267794629546524</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3637914854088161</v>
+        <v>0.3659911898875512</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.489235020208599</v>
+        <v>0.490749430380587</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>60</v>
@@ -3437,19 +3437,19 @@
         <v>59469</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>48276</v>
+        <v>47412</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>72578</v>
+        <v>71211</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3621007283664187</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2939514897969589</v>
+        <v>0.2886913593005286</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4419228988564843</v>
+        <v>0.4336011658413541</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>157</v>
@@ -3458,19 +3458,19 @@
         <v>162459</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>142762</v>
+        <v>143771</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>182541</v>
+        <v>183271</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4005872297151806</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3520182667967252</v>
+        <v>0.3545054169560646</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4501034209000567</v>
+        <v>0.4519038418872924</v>
       </c>
     </row>
     <row r="9">
@@ -3562,19 +3562,19 @@
         <v>7247</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3040</v>
+        <v>2901</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15279</v>
+        <v>14824</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01753677585670292</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007357296070562977</v>
+        <v>0.007020171622902171</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03697413208357449</v>
+        <v>0.03587091914153418</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -3583,19 +3583,19 @@
         <v>5841</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2193</v>
+        <v>2096</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13231</v>
+        <v>11881</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02141537087225526</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008042131236202683</v>
+        <v>0.007684668833998077</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04850849092447394</v>
+        <v>0.0435600358119485</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -3604,19 +3604,19 @@
         <v>13088</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6392</v>
+        <v>6881</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22597</v>
+        <v>23568</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01907889801763892</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009317590585951238</v>
+        <v>0.01003005785030277</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03294036341057712</v>
+        <v>0.03435648049176983</v>
       </c>
     </row>
     <row r="11">
@@ -3633,19 +3633,19 @@
         <v>14142</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7566</v>
+        <v>8440</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>23693</v>
+        <v>23795</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03422163060338209</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01830792084996279</v>
+        <v>0.02042373727528827</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05733274677070146</v>
+        <v>0.05757960701113684</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>19</v>
@@ -3654,19 +3654,19 @@
         <v>19700</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12257</v>
+        <v>11891</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29687</v>
+        <v>29513</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07222566430500565</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0449385218689902</v>
+        <v>0.04359532570620021</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1088430540623672</v>
+        <v>0.1082063445959431</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>32</v>
@@ -3675,19 +3675,19 @@
         <v>33842</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>24169</v>
+        <v>23424</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>46514</v>
+        <v>47956</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04933196368565317</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03523227222613433</v>
+        <v>0.03414596168954769</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0678050611158857</v>
+        <v>0.06990662305550112</v>
       </c>
     </row>
     <row r="12">
@@ -3704,19 +3704,19 @@
         <v>80801</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>64784</v>
+        <v>63860</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>97198</v>
+        <v>97854</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1955276156901829</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1567684151615592</v>
+        <v>0.1545317664621492</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2352063924019062</v>
+        <v>0.236793409970365</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>47</v>
@@ -3725,19 +3725,19 @@
         <v>45436</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>34204</v>
+        <v>35129</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>58683</v>
+        <v>59232</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1665837725066083</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1254024664443906</v>
+        <v>0.1287967876862245</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2151514774836086</v>
+        <v>0.2171649131808976</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>120</v>
@@ -3746,19 +3746,19 @@
         <v>126237</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>107285</v>
+        <v>105627</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>148319</v>
+        <v>146522</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1840195974987837</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1563922154812315</v>
+        <v>0.1539763763333046</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2162092435781715</v>
+        <v>0.2135901264178072</v>
       </c>
     </row>
     <row r="13">
@@ -3775,19 +3775,19 @@
         <v>114014</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>95388</v>
+        <v>95600</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>132959</v>
+        <v>133608</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2758979409595739</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2308273167744381</v>
+        <v>0.2313400606858713</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3217438391315291</v>
+        <v>0.3233129458286162</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>79</v>
@@ -3796,19 +3796,19 @@
         <v>80555</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>65357</v>
+        <v>65825</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>96686</v>
+        <v>97403</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2953423313425924</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2396209808324754</v>
+        <v>0.2413384516546184</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3544847610033374</v>
+        <v>0.3571120186806448</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>185</v>
@@ -3817,19 +3817,19 @@
         <v>194569</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>170534</v>
+        <v>171045</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>219025</v>
+        <v>218650</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2836289943939509</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2485928588274309</v>
+        <v>0.2493373068018311</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3192804320510721</v>
+        <v>0.3187336547456999</v>
       </c>
     </row>
     <row r="14">
@@ -3846,19 +3846,19 @@
         <v>197042</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>175648</v>
+        <v>175261</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>217960</v>
+        <v>216427</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4768160368901582</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4250439521132235</v>
+        <v>0.4241076872318213</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5274331605050714</v>
+        <v>0.5237251953857757</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>116</v>
@@ -3867,19 +3867,19 @@
         <v>121220</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>104261</v>
+        <v>104871</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>136901</v>
+        <v>136681</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4444328609735384</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.382255512960775</v>
+        <v>0.3844947683315987</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5019269778758529</v>
+        <v>0.5011215711818442</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>289</v>
@@ -3888,19 +3888,19 @@
         <v>318262</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>290268</v>
+        <v>291462</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>345346</v>
+        <v>344900</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4639405464039734</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4231329839235828</v>
+        <v>0.4248738715734436</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5034220230508417</v>
+        <v>0.502771761466732</v>
       </c>
     </row>
     <row r="15">
@@ -3992,19 +3992,19 @@
         <v>14172</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7556</v>
+        <v>7555</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23163</v>
+        <v>23199</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03906729396892409</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02082759455777364</v>
+        <v>0.02082484091841015</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06385007831924508</v>
+        <v>0.0639487023478373</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -4013,19 +4013,19 @@
         <v>6637</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2676</v>
+        <v>2065</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13180</v>
+        <v>13464</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02462362694630199</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009927141626973396</v>
+        <v>0.007662130236357837</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0489011693624288</v>
+        <v>0.04995327765512908</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -4034,19 +4034,19 @@
         <v>20809</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12561</v>
+        <v>13145</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30917</v>
+        <v>31743</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03291047839999434</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01986591937639386</v>
+        <v>0.0207898276967134</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04889652358080557</v>
+        <v>0.05020243010638616</v>
       </c>
     </row>
     <row r="17">
@@ -4063,19 +4063,19 @@
         <v>30609</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19847</v>
+        <v>19743</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>42829</v>
+        <v>43216</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08437675260996491</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05470844919689632</v>
+        <v>0.05442295511886406</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1180606720116516</v>
+        <v>0.1191282899060542</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -4084,19 +4084,19 @@
         <v>27956</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19326</v>
+        <v>18262</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>39789</v>
+        <v>38749</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1037246474299359</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07170479155265572</v>
+        <v>0.06775647909045446</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1476270793864687</v>
+        <v>0.14377008026522</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>54</v>
@@ -4105,19 +4105,19 @@
         <v>58566</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>44121</v>
+        <v>44795</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>73914</v>
+        <v>76617</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09262406403489883</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06977930495554548</v>
+        <v>0.07084445263355389</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1168978264652518</v>
+        <v>0.1211732368767839</v>
       </c>
     </row>
     <row r="18">
@@ -4134,19 +4134,19 @@
         <v>111967</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>92405</v>
+        <v>92312</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>130729</v>
+        <v>130376</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.308645709914138</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2547204515524579</v>
+        <v>0.2544632967648728</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.360362792406635</v>
+        <v>0.3593905887842997</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>66</v>
@@ -4155,19 +4155,19 @@
         <v>66293</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>51722</v>
+        <v>52882</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>80379</v>
+        <v>80690</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2459618271382345</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1919022923849252</v>
+        <v>0.1962063581933954</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2982258767089872</v>
+        <v>0.2993804527195983</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>164</v>
@@ -4176,19 +4176,19 @@
         <v>178260</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>154145</v>
+        <v>155325</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>200933</v>
+        <v>203804</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2819258260514603</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2437862751013237</v>
+        <v>0.2456537119807932</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3177844153557897</v>
+        <v>0.3223244588847908</v>
       </c>
     </row>
     <row r="19">
@@ -4205,19 +4205,19 @@
         <v>82693</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>66993</v>
+        <v>67528</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>101002</v>
+        <v>101014</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2279482900128429</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1846712314299111</v>
+        <v>0.1861452416662527</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2784200948363366</v>
+        <v>0.2784506585822152</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>73</v>
@@ -4226,19 +4226,19 @@
         <v>75242</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>62225</v>
+        <v>61740</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>89752</v>
+        <v>90864</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2791662473582369</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2308682635500927</v>
+        <v>0.2290691082300059</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3330023807074046</v>
+        <v>0.3371261205488857</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>148</v>
@@ -4247,19 +4247,19 @@
         <v>157935</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>137507</v>
+        <v>137772</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>180580</v>
+        <v>181478</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.249780662408233</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2174736770826756</v>
+        <v>0.2178926174847577</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2855949281201635</v>
+        <v>0.2870153192688073</v>
       </c>
     </row>
     <row r="20">
@@ -4276,19 +4276,19 @@
         <v>123328</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>104602</v>
+        <v>105559</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>141232</v>
+        <v>144370</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.33996195349413</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2883428782058549</v>
+        <v>0.2909800382558271</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.389316544713457</v>
+        <v>0.3979652219764008</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>91</v>
@@ -4297,19 +4297,19 @@
         <v>93396</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>77636</v>
+        <v>78224</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>110246</v>
+        <v>109499</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3465236511272908</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2880483092888399</v>
+        <v>0.2902313450836901</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4090391958507567</v>
+        <v>0.4062695507460628</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>205</v>
@@ -4318,19 +4318,19 @@
         <v>216724</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>193010</v>
+        <v>191961</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>241728</v>
+        <v>242370</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3427589691054134</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3052533955197434</v>
+        <v>0.3035944725143279</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3823030149343603</v>
+        <v>0.3833178995207489</v>
       </c>
     </row>
     <row r="21">
@@ -4422,19 +4422,19 @@
         <v>10591</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5005</v>
+        <v>5396</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18722</v>
+        <v>19025</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02654265500478332</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01254269821944448</v>
+        <v>0.01352255224534854</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04692254449075961</v>
+        <v>0.0476817551503951</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -4443,19 +4443,19 @@
         <v>10702</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5350</v>
+        <v>5094</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19848</v>
+        <v>17961</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03288098995363774</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01643828853313537</v>
+        <v>0.01565157226051449</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06098273810270751</v>
+        <v>0.05518556729313437</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>20</v>
@@ -4464,19 +4464,19 @@
         <v>21292</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13796</v>
+        <v>12066</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>32433</v>
+        <v>31256</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.029390185737338</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01904233106177391</v>
+        <v>0.01665450347094829</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04476804208844417</v>
+        <v>0.04314344973944816</v>
       </c>
     </row>
     <row r="23">
@@ -4493,19 +4493,19 @@
         <v>11918</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6771</v>
+        <v>6355</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>20234</v>
+        <v>20749</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02986957356911048</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01697037825741796</v>
+        <v>0.01592762268561256</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05071259614809993</v>
+        <v>0.05200337073947625</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>14</v>
@@ -4514,19 +4514,19 @@
         <v>14611</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8534</v>
+        <v>8132</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>24236</v>
+        <v>22696</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04489176715082844</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02622144001865678</v>
+        <v>0.02498521709864274</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07446445222451163</v>
+        <v>0.06973141169254381</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>25</v>
@@ -4535,19 +4535,19 @@
         <v>26529</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>17149</v>
+        <v>17964</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>38036</v>
+        <v>39463</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03661837404107968</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02367148183978689</v>
+        <v>0.0247955244553055</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05250126252994583</v>
+        <v>0.05447156610819492</v>
       </c>
     </row>
     <row r="24">
@@ -4564,19 +4564,19 @@
         <v>53202</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>41199</v>
+        <v>40735</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>67633</v>
+        <v>69534</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1333386632484256</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1032558602129814</v>
+        <v>0.1020923686256322</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1695048381398302</v>
+        <v>0.1742704790739062</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>40</v>
@@ -4585,19 +4585,19 @@
         <v>41089</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>30720</v>
+        <v>30655</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>55320</v>
+        <v>54316</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1262426640889154</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09438407882161433</v>
+        <v>0.09418678467529339</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1699661847176775</v>
+        <v>0.1668834323909173</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>92</v>
@@ -4606,19 +4606,19 @@
         <v>94291</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>76833</v>
+        <v>76679</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>112298</v>
+        <v>112319</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1301507478340565</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1060531682132654</v>
+        <v>0.1058412580977527</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1550062237635358</v>
+        <v>0.1550347146844333</v>
       </c>
     </row>
     <row r="25">
@@ -4635,19 +4635,19 @@
         <v>105936</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>87737</v>
+        <v>89022</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>124569</v>
+        <v>122342</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2655029400789505</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2198920023202326</v>
+        <v>0.2231132612238634</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3122010976316113</v>
+        <v>0.3066195995911853</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>76</v>
@@ -4656,19 +4656,19 @@
         <v>79526</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>64353</v>
+        <v>64321</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>94897</v>
+        <v>97033</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2443402851958455</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1977207649747885</v>
+        <v>0.1976239755011747</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2915647042863803</v>
+        <v>0.2981274581483368</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>181</v>
@@ -4677,19 +4677,19 @@
         <v>185462</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>162795</v>
+        <v>162776</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>210636</v>
+        <v>209884</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2559955046643893</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2247070101636628</v>
+        <v>0.224681024376913</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2907435399186511</v>
+        <v>0.2897052804778228</v>
       </c>
     </row>
     <row r="26">
@@ -4706,19 +4706,19 @@
         <v>217354</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>196988</v>
+        <v>198728</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>236148</v>
+        <v>237541</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.54474616809873</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4937028170853875</v>
+        <v>0.4980641206186494</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5918484344242705</v>
+        <v>0.5953388387758679</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>167</v>
@@ -4727,19 +4727,19 @@
         <v>179546</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>162058</v>
+        <v>163297</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>197143</v>
+        <v>199670</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5516442936107728</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4979151155382581</v>
+        <v>0.5017206311189368</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6057118016792306</v>
+        <v>0.6134757682001891</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>380</v>
@@ -4748,19 +4748,19 @@
         <v>396900</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>366558</v>
+        <v>372272</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>423344</v>
+        <v>427200</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5478451877231365</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.505963145746532</v>
+        <v>0.5138511247113146</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5843452162038203</v>
+        <v>0.5896679527058208</v>
       </c>
     </row>
     <row r="27">
@@ -4852,19 +4852,19 @@
         <v>38639</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>28050</v>
+        <v>27744</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>53584</v>
+        <v>51646</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02728067793005616</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0198046722463283</v>
+        <v>0.01958848319370792</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03783290848465828</v>
+        <v>0.03646430079783511</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>25</v>
@@ -4873,19 +4873,19 @@
         <v>27505</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>19092</v>
+        <v>18520</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>39970</v>
+        <v>40247</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02665223894615842</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01850044274535438</v>
+        <v>0.01794637907547608</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03873111534615729</v>
+        <v>0.03899958074308513</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>60</v>
@@ -4894,19 +4894,19 @@
         <v>66143</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>51153</v>
+        <v>50665</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>84812</v>
+        <v>82831</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02701578693738887</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02089307962286251</v>
+        <v>0.02069392655692343</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0346408341708772</v>
+        <v>0.03383174912009992</v>
       </c>
     </row>
     <row r="29">
@@ -4923,19 +4923,19 @@
         <v>74934</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>59638</v>
+        <v>58512</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>94243</v>
+        <v>91900</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05290674511910444</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0421068623145618</v>
+        <v>0.04131190619408094</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06653982304783235</v>
+        <v>0.06488567071713656</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>74</v>
@@ -4944,19 +4944,19 @@
         <v>74097</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>59332</v>
+        <v>56794</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>91114</v>
+        <v>91224</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07180018771807985</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05749345348820268</v>
+        <v>0.05503384883194985</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08829061631969853</v>
+        <v>0.08839684666751242</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>142</v>
@@ -4965,19 +4965,19 @@
         <v>149030</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>128586</v>
+        <v>127671</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>173967</v>
+        <v>175213</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06087045025703942</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05252029064068171</v>
+        <v>0.05214642519952439</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07105558224895735</v>
+        <v>0.07156479898360761</v>
       </c>
     </row>
     <row r="30">
@@ -4994,19 +4994,19 @@
         <v>285164</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>253793</v>
+        <v>254405</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>316949</v>
+        <v>318876</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2013394289105138</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.179189775840611</v>
+        <v>0.1796216339531924</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2237810136191038</v>
+        <v>0.2251410240717411</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>187</v>
@@ -5015,19 +5015,19 @@
         <v>184719</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>160655</v>
+        <v>161785</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>207588</v>
+        <v>211138</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1789946541946401</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1556763329599618</v>
+        <v>0.1567710219857943</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2011548860041766</v>
+        <v>0.2045944641264945</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>446</v>
@@ -5036,19 +5036,19 @@
         <v>469884</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>435365</v>
+        <v>433746</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>510383</v>
+        <v>511962</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.19192096553209</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1778218956858613</v>
+        <v>0.1771608784313075</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2084627090512849</v>
+        <v>0.2091075018317153</v>
       </c>
     </row>
     <row r="31">
@@ -5065,19 +5065,19 @@
         <v>376885</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>346236</v>
+        <v>343237</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>410233</v>
+        <v>408295</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2660984739555231</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2444590599343785</v>
+        <v>0.2423415879325866</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2896438960654345</v>
+        <v>0.2882755099729801</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>288</v>
@@ -5086,19 +5086,19 @@
         <v>292031</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>264440</v>
+        <v>264976</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>323222</v>
+        <v>323897</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2829805415589943</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2562445093644295</v>
+        <v>0.2567645275193556</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3132046878537135</v>
+        <v>0.3138588461056343</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>646</v>
@@ -5107,19 +5107,19 @@
         <v>668916</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>623556</v>
+        <v>626538</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>716474</v>
+        <v>715987</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2732143718554654</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2546875343163696</v>
+        <v>0.2559053016028491</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2926393953030247</v>
+        <v>0.2924403304021539</v>
       </c>
     </row>
     <row r="32">
@@ -5136,19 +5136,19 @@
         <v>640715</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>601168</v>
+        <v>600639</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>677189</v>
+        <v>680614</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4523746740848025</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4244529928994129</v>
+        <v>0.424078928907247</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.478126983082896</v>
+        <v>0.4805453311754296</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>434</v>
@@ -5157,19 +5157,19 @@
         <v>453631</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>422753</v>
+        <v>422109</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>486142</v>
+        <v>483113</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4395723775821273</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4096510688874815</v>
+        <v>0.409027313129413</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4710757382559722</v>
+        <v>0.4681406295191926</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1031</v>
@@ -5178,19 +5178,19 @@
         <v>1094345</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1041431</v>
+        <v>1047960</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1144252</v>
+        <v>1144876</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4469784254180164</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.425366089388932</v>
+        <v>0.4280328208152</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4673624364613388</v>
+        <v>0.4676173867476507</v>
       </c>
     </row>
     <row r="33">
